--- a/My All Data.xlsx
+++ b/My All Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" firstSheet="3" activeTab="13"/>
+    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Urls" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="New bids" sheetId="13" r:id="rId11"/>
     <sheet name="Upwork Account" sheetId="14" r:id="rId12"/>
     <sheet name="Github" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId14"/>
+    <sheet name="new bids2" sheetId="16" r:id="rId14"/>
+    <sheet name="Portfolios" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="560">
   <si>
     <t>React</t>
   </si>
@@ -518,7 +519,7 @@
     <t>React Next</t>
   </si>
   <si>
-    <t>https://www.yellowoctopus.com.au/</t>
+    <t>https://www.yellowoctopus.com.au</t>
   </si>
   <si>
     <t>https://shop.deakin.edu.au/</t>
@@ -1844,22 +1845,47 @@
     <t>vitalii.luchak700@gmail.com</t>
   </si>
   <si>
+    <t>Anydesk</t>
+  </si>
+  <si>
     <t>gulozagulo@6</t>
   </si>
   <si>
     <t>69874Heppy</t>
   </si>
   <si>
+    <t>1609034246
+Fariz6666#H</t>
+  </si>
+  <si>
     <t>KEY - Rufo</t>
   </si>
   <si>
     <t>saddy700</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>fariz666h@gmail.com
+Fariz6666#H</t>
+  </si>
+  <si>
     <t>Payoneer</t>
   </si>
   <si>
+    <t>Vps</t>
+  </si>
+  <si>
+    <t>ip: 74.208.246.244
+username: Administrator
+password: 93VRTXLh</t>
+  </si>
+  <si>
     <t>Rufo666#</t>
+  </si>
+  <si>
+    <t>Icon and Image</t>
   </si>
   <si>
     <t>Kyiv
@@ -1867,7 +1893,10 @@
 05\01</t>
   </si>
   <si>
-    <t>Anydesk</t>
+    <t>https://iconscout.com/</t>
+  </si>
+  <si>
+    <t>smgxaya@ucl.ac.uk</t>
   </si>
   <si>
     <t>476 077 164</t>
@@ -1876,6 +1905,9 @@
     <t>719 070 595</t>
   </si>
   <si>
+    <t>websitepassword</t>
+  </si>
+  <si>
     <t>Daidara900.</t>
   </si>
   <si>
@@ -1885,36 +1917,78 @@
     <t>champion5star247963!</t>
   </si>
   <si>
+    <t>Street Address:  90, Scenic Road
+City: Hard Labour
+Phone: 3407742991
+Tax Info ==============================
+4545 8th Avenue Northeast, Seattle, WA, USA
+Contact Info++++++++++++++++++++++
+Address: 4545 Laclede Ave, Saint Louis, MO 63108
+City: Saint Louis
+Province: Missouri
+ZIP Code:  63108
+W-9 ===================================
+Federal Tax Classification: Partnership    
+SSN: 558-87-XXXX</t>
+  </si>
+  <si>
     <t>@hotmail</t>
   </si>
   <si>
+    <t>https://99designs.com/inspiration/websites/startup</t>
+  </si>
+  <si>
     <t>Garnizon9999</t>
   </si>
   <si>
+    <t>https://hiroshi-cv.onrender.com</t>
+  </si>
+  <si>
     <t>Birthday</t>
   </si>
   <si>
+    <t>https://nathan-resume.onrender.com</t>
+  </si>
+  <si>
     <t>16/9/1998</t>
   </si>
   <si>
+    <t>https://daniel-resume.onrender.com</t>
+  </si>
+  <si>
     <t>Telegram</t>
   </si>
   <si>
+    <t>ip: 74.208.246.244</t>
+  </si>
+  <si>
     <t>https://t.me/jenyaa23</t>
   </si>
   <si>
+    <t>username: Administrator</t>
+  </si>
+  <si>
     <t>https://t.me/severus_u</t>
   </si>
   <si>
+    <t>password: 93VRTXLh</t>
+  </si>
+  <si>
     <t>Phone number</t>
   </si>
   <si>
     <t>380 685 495195</t>
   </si>
   <si>
+    <t>Proton Mail</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
+    <t>daniel247963@proton.me</t>
+  </si>
+  <si>
     <t>Volodymyra Velukoho</t>
   </si>
   <si>
@@ -1924,13 +1998,28 @@
     <t>Ukraine</t>
   </si>
   <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>20 101 284 9655</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>856 20 28 197 377</t>
+  </si>
+  <si>
     <t>Vitalii Luchak</t>
   </si>
   <si>
+    <t>Clinton Oh</t>
+  </si>
+  <si>
     <t>Mongo Atlas Login information</t>
+  </si>
+  <si>
+    <t>1 (917) 903 4043</t>
   </si>
   <si>
     <t>email: vitalii.luchak700@gmail.com</t>
@@ -1964,14 +2053,144 @@
 Sincerely,
 Daniel</t>
   </si>
+  <si>
+    <t xml:space="preserve">Dear client, 
+I hope this message finds you well.I am writing to express my interest in the [Job Title/Position] you have posted. After carefully reading the job description, I am confident that my skills and experience make me a strong candidate for this role. 
+As a seasoned full-stack developer, I have extensive experience in Figma design and converting Figma designs into React UI. I possess a deep understanding of color palettes and user-friendly design principles, which enables me to create visually appealing and intuitive interfaces. 
+In addition to my proficiency in Figma, I have a strong command of various React libraries and themes such as Material-UI, Ant Design, MDBReact, React Ionic, Chakra UI, Semantic UI, Reactstrap, and React Bootstrap. These tools allow me to efficiently develop and deliver high-quality projects. 
+To provide you with a glimpse of my capabilities, I invite you to review some of my past projects: 
+1. [Project 1]: [Brief description of the project and technologies used] 
+   - Link: [URL] 
+2. [Project 2]: [Brief description of the project and technologies used] 
+   - Link: [URL] 
+3. [Project 3]: [Brief description of the project and technologies used] 
+   - Link: [URL] 
+Based on your requirements, I am confident that I can complete the project within a timeframe of 4 days. I am eager to discuss your project in more detail and address any questions or concerns you may have. 
+Thank you for considering my application. I look forward to hearing from you soon. 
+Best regards, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear sir
+I have checked your requirements and website.
+I'm sure I can complete the responsive website you want within 2 weeks.
+With my extensive experience and expertise in WordPress development, I am confident in my ability to contribute to your team and help you achieve your goals. 
+I have 6 years of experience working as a WordPress developer, specializing in custom theme development, plugin customization, and website optimization.
+I am well-versed in HTML, CSS, JavaScript, and PHP, which are essential for creating and customizing WordPress websites.
+Additionally, I have a strong understanding of responsive design principles to ensure seamless user experiences across various devices.
+These are my past works based on Wordpress.
+https://genzerfarms.com
+http://galaxyfirm.com
+I am excited about the opportunity to contribute my expertise to your project and help drive its success.
+Thank you for considering my application.
+I would welcome the opportunity to discuss how my skills and experience align with your requirements in more detail.
+Sincerely
+Thomas
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Hiring Manager, 
+I am writing to express my interest in the [Position] role at [Company]. With [Number] years of experience in [Industry/Field], I am confident in my ability to make a valuable contribution to your team. 
+In my current role as [Current Position] at [Current Company], I have gained extensive knowledge and experience in [Skills/Responsibilities]. I have also had the opportunity to work on projects such as [Project Name] which have allowed me to develop my skills in [Skills/Responsibilities]. I am excited about the opportunity to bring this experience and skillset to [Company] and contribute to the success of your team. 
+I am highly organized, detail-oriented, and have excellent communication skills. I am a quick learner and thrive in a fast-paced environment. I am also comfortable working independently or as part of a team. I am confident that my skills and experience make me a strong candidate for the [Position] role at [Company]. 
+Thank you for considering my application. I look forward to the opportunity to further discuss my qualifications with you. 
+Sincerely, </t>
+  </si>
+  <si>
+    <t>Dear client
+As a WordPress expert, I versed in the development, customization, and management of WordPress websites.
+I have extensive knowledge of WordPress themes, plugins, and coding languages such as PHP, HTML, and CSS.
+With my strong background in Wordpress, I can help you to create bulk products in your site.
+You can get glimpse about me in following projects.
+https://www.yellowoctopus.com.au
+https://www.pharmdlive.com
+https://www.makemytrip.com
+I look forward to discussing further details.
+Thank you for your attention.
+Sincerely
+Fariz</t>
+  </si>
+  <si>
+    <t>Dear client
+I have carefully read your job description and I think I'm a good candidate for you.
+As a full stack developer, I am very familiar with javascript frameworks such as React, Vue, Angular, and Express.js.
+I have got rich experience with Restful API and MongoDB through backend projects using Node.js, Django, Laravel.
+As a result, right now I am sure I can help you to build the perfect website.
+These are my past projects
+https://dendomains.com (next.js + node.js)
+https://easyprez.fr (react.js + node.js)
+http://play.harcomia.com (react.js + laravel + smart contract)
+https://re-24.com (react.js + node.js)
+https://app.crmgrow.com(angular 10 + node.js)
+https://blendjet.com(vue, nuxt)
+...
+I hope to discuss more about your project via PM or call.
+Looking forward to hearing from you soon.
+Best regards
+Daniel</t>
+  </si>
+  <si>
+    <t>Dear [Hiring Manager's Name], 
+I am writing to express my interest in the [Position] role at [Company]. After carefully reviewing the requirements, I am confident in recommending React Native as the ideal framework for your project. Furthermore, I am curious to know which framework was utilized in your company's website. 
+As a seasoned full stack developer with 5 years of experience, I have successfully worked with React Native on various projects. I invite you to review some of my past works: 
+- TempConnect (iOS): [Link to App Store] 
+- TempConnect (Android): [Link to Google Play Store] 
+- Charma (iOS): [Link to App Store] 
+- Charma (Android): [Link to Google Play Store] 
+These examples showcase my proficiency in developing high-quality applications using React Native. Based on my expertise, I estimate that your project will take approximately 20 days to complete. 
+Thank you for considering my application. I eagerly await the opportunity to discuss how my skills and experience can contribute to the success of your team. Please feel free to contact me at your convenience. 
+Best regards, 
+Elias</t>
+  </si>
+  <si>
+    <t>Dear sir
+I have checked your requirements and website.
+I'm sure I can complete the responsive website you want within 2 weeks.
+With my extensive experience and expertise in full stack development, I am confident in my ability to contribute to your project and help you achieve your goals. 
+I have 6 years of experience working as a full stack developer, specializing in user friendly design, api and database design, and website optimization.
+I am well-versed in HTML, CSS, JavaScript, and PHP.
+Additionally, I have a strong understanding of responsive design principles to ensure seamless user experiences across various devices.
+These are my past works based on React, Laravel, and Typescript.
+https://dendomains.com (next.js + node.js)
+https://easyprez.fr (react.js + node.js)
+http://play.harcomia.com (react.js + laravel + smart contract)
+https://re-24.com (react.js + node.js)
+...
+I am excited about the opportunity to contribute my expertise to your project and help drive its success.
+Thank you for considering my application.
+I would welcome the opportunity to discuss how my skills and experience align with your requirements in more detail.
+Sincerely
+Thomas</t>
+  </si>
+  <si>
+    <t>Dear Sir, 
+I hope this message finds you well. I am writing to express my interest in the available position and my availability to work full time (30 hrs/week) in the PST time zone, starting immediately. 
+With over 6 years of experience in working on React.js projects, I have developed a strong foundation and extensive knowledge in this field. Throughout my career, I have utilized various React.js themes such as Material-UI, Antd, MDBReact, React-Ionic, Chakra-UI, Semantic-UI, Reactstrap, and React-Bootstrap. Additionally, I have employed Redux Thunk and Saga for efficient state management. Moreover, I have frequently conducted unit tests using Jest and Enzyme to ensure high-quality code. 
+In the backend development of these React.js projects, I have predominantly utilized Node.js and various serverless frameworks such as Firebase and AWS. On occasion, I have combined these technologies with Laravel to create robust and scalable applications. 
+To provide you with a glimpse of my past work, please find below a list of some of my notable projects: 
+1. Dendomains: Next.js + Node.js 
+2. Easyprez: React.js + Node.js 
+3. Play Harcomia: React.js + Laravel + Smart Contract 
+4. Re-24: React.js + Node.js 
+These projects demonstrate my ability to deliver high-quality work and meet project goals effectively. 
+I would be grateful for the opportunity to discuss further how I can contribute to your team and help you achieve your objectives. Thank you for considering my application. 
+Best regards, 
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Webaudiox</t>
+  </si>
+  <si>
+    <t>https://alemangui.github.io/pizzicato/
+https://github.com/jeromeetienne/webaudiox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2049,7 +2268,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2063,20 +2298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2087,14 +2308,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2102,21 +2315,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,31 +2346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2170,7 +2361,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2251,19 +2470,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,19 +2554,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,7 +2590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,13 +2608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,97 +2620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2435,6 +2636,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2442,54 +2661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2512,7 +2683,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2532,6 +2727,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2547,148 +2766,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2699,15 +2918,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2717,7 +2936,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2741,7 +2960,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2771,31 +2990,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2807,64 +3026,64 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3137,8 +3356,8 @@
   <sheetPr/>
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D6 D10 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3147,7 +3366,7 @@
     <col min="2" max="2" width="44.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="36.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="24.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="35.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="24.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="35.7142857142857" customWidth="1"/>
     <col min="8" max="8" width="24.4285714285714" customWidth="1"/>
@@ -3507,7 +3726,7 @@
       <c r="A16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I16" t="s">
@@ -3553,13 +3772,13 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I21" t="s">
@@ -3567,10 +3786,10 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -3584,10 +3803,10 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3673,10 +3892,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="E30" s="8" t="s">
         <v>152</v>
       </c>
@@ -3685,7 +3904,7 @@
       <c r="A31" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -3707,7 +3926,7 @@
       <c r="B33" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -3715,10 +3934,10 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3726,7 +3945,7 @@
       <c r="A35" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -3734,7 +3953,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -3747,10 +3966,10 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3987,7 +4206,7 @@
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3995,7 +4214,7 @@
       <c r="A70" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4003,7 +4222,7 @@
       <c r="A71" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4011,7 +4230,7 @@
       <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4029,7 +4248,7 @@
       <c r="A75" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4039,12 +4258,12 @@
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4054,7 +4273,7 @@
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4231,7 +4450,7 @@
     <hyperlink ref="D3" r:id="rId118" display="https://www.beautynesia.id/"/>
     <hyperlink ref="D4" r:id="rId119" display="https://www.5bestesingleboersen.at/"/>
     <hyperlink ref="D5" r:id="rId120" display="https://www.aal-products.com/" tooltip="https://www.aal-products.com/"/>
-    <hyperlink ref="D6" r:id="rId121" display="https://storyclash.com/"/>
+    <hyperlink ref="D6" r:id="rId121" display="https://storyclash.com/" tooltip="https://storyclash.com/"/>
     <hyperlink ref="D7" r:id="rId122" display="http://5starspainting.co.nz/"/>
     <hyperlink ref="D8" r:id="rId123" display="https://www.pampers.it/"/>
     <hyperlink ref="D9" r:id="rId124" display="https://www.florence-tickets.com/"/>
@@ -4270,7 +4489,7 @@
     <hyperlink ref="J6" r:id="rId157" display="https://staffitpro.de/"/>
     <hyperlink ref="J7" r:id="rId158" display="https://www.mumz.cz/" tooltip="https://www.mumz.cz/"/>
     <hyperlink ref="C35" r:id="rId159" display="https://shop.deakin.edu.au/"/>
-    <hyperlink ref="C34" r:id="rId160" display="https://www.yellowoctopus.com.au/"/>
+    <hyperlink ref="C34" r:id="rId160" display="https://www.yellowoctopus.com.au" tooltip="https://www.yellowoctopus.com.au"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4283,7 +4502,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4292,12 +4511,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>458</v>
       </c>
     </row>
@@ -4317,12 +4536,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4332,12 +4551,12 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4454,226 +4673,314 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="49.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="54.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="64.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>491</v>
       </c>
+    </row>
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="C3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>493</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="4:4">
+      <c r="D5" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>490</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>504</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C12" t="s">
-        <v>500</v>
+        <v>508</v>
+      </c>
+      <c r="D12" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" ht="255" spans="3:4">
       <c r="C14" t="s">
-        <v>503</v>
+        <v>512</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A15" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>490</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>518</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>520</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>524</v>
+      </c>
+      <c r="D23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
+      </c>
+      <c r="D24" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="4" t="s">
-        <v>511</v>
+      <c r="C25" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="4" t="s">
-        <v>513</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="4" t="s">
-        <v>517</v>
+        <v>535</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D33" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="4" t="s">
-        <v>519</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D36" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="4" t="s">
-        <v>522</v>
+      <c r="C40" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4686,6 +4993,13 @@
     <hyperlink ref="C16" r:id="rId4" display="vitalii.luchak700@gmail.com" tooltip="mailto:vitalii.luchak700@gmail.com"/>
     <hyperlink ref="C7" r:id="rId4" display="vitalii.luchak700@gmail.com" tooltip="mailto:vitalii.luchak700@gmail.com"/>
     <hyperlink ref="A2" r:id="rId2" display="romapetro288@outlook.com" tooltip="mailto:romapetro288@outlook.com"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://iconscout.com/" tooltip="https://iconscout.com/"/>
+    <hyperlink ref="D11" r:id="rId6" display="smgxaya@ucl.ac.uk"/>
+    <hyperlink ref="D16" r:id="rId7" display="https://99designs.com/inspiration/websites/startup"/>
+    <hyperlink ref="D18" r:id="rId8" display="https://hiroshi-cv.onrender.com"/>
+    <hyperlink ref="D19" r:id="rId9" display="https://nathan-resume.onrender.com"/>
+    <hyperlink ref="D20" r:id="rId10" display="https://daniel-resume.onrender.com"/>
+    <hyperlink ref="D28" r:id="rId11" display="daniel247963@proton.me"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4698,7 +5012,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4707,12 +5021,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4729,24 +5043,84 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="65.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="108" customWidth="1"/>
+    <col min="3" max="3" width="96.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="67.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="409" customHeight="1" spans="1:2">
+    <row r="1" ht="409" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>525</v>
+        <v>548</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" ht="363" customHeight="1" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="62.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" ht="74" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -4761,7 +5135,7 @@
   <dimension ref="A3:O117"/>
   <sheetViews>
     <sheetView topLeftCell="F103" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5413,7 +5787,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1" spans="6:12">
+    <row r="61" s="3" customFormat="1" spans="6:12">
       <c r="F61" s="34" t="s">
         <v>297</v>
       </c>
@@ -5421,14 +5795,14 @@
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="L61" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="62" s="4" customFormat="1" spans="6:10">
+    <row r="62" s="3" customFormat="1" spans="6:10">
       <c r="F62" s="34" t="s">
         <v>299</v>
       </c>
@@ -5437,7 +5811,7 @@
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
     </row>
-    <row r="63" s="4" customFormat="1" spans="6:10">
+    <row r="63" s="3" customFormat="1" spans="6:10">
       <c r="F63" s="34" t="s">
         <v>300</v>
       </c>
@@ -5446,7 +5820,7 @@
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
     </row>
-    <row r="64" s="4" customFormat="1" spans="6:10">
+    <row r="64" s="3" customFormat="1" spans="6:10">
       <c r="F64" s="34" t="s">
         <v>301</v>
       </c>
@@ -5455,7 +5829,7 @@
       <c r="I64" s="35"/>
       <c r="J64" s="35"/>
     </row>
-    <row r="65" s="4" customFormat="1" spans="6:10">
+    <row r="65" s="3" customFormat="1" spans="6:10">
       <c r="F65" s="38" t="s">
         <v>302</v>
       </c>
@@ -5464,7 +5838,7 @@
       <c r="I65" s="35"/>
       <c r="J65" s="35"/>
     </row>
-    <row r="66" s="4" customFormat="1" spans="6:10">
+    <row r="66" s="3" customFormat="1" spans="6:10">
       <c r="F66" s="38" t="s">
         <v>303</v>
       </c>
@@ -6067,7 +6441,7 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6081,19 +6455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -6115,10 +6489,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6167,7 +6541,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -6179,13 +6553,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>365</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -6225,13 +6599,13 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="64.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="130.571428571429" customWidth="1"/>
     <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
@@ -6332,7 +6706,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B8" t="s">
@@ -6372,7 +6746,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B13" t="s">
@@ -6404,12 +6778,12 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B18" t="s">
@@ -6474,7 +6848,7 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6487,7 +6861,7 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6507,7 +6881,7 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6532,12 +6906,12 @@
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6557,7 +6931,7 @@
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6595,7 +6969,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -6630,7 +7004,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -6640,7 +7014,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6690,7 +7064,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -6725,7 +7099,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -6735,7 +7109,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B1" t="s">
@@ -6743,7 +7117,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>453</v>
       </c>
     </row>
